--- a/biology/Zoologie/Arbasus_caecus/Arbasus_caecus.xlsx
+++ b/biology/Zoologie/Arbasus_caecus/Arbasus_caecus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbasus caecus, unique représentant du genre Arbasus, est une espèce d'opilions laniatores de la famille des Cladonychiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de France. Elle se rencontre dans des grottes dans les Pyrénées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de France. Elle se rencontre dans des grottes dans les Pyrénées.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbasus caecus mesure 1,5 mm[2]. Cet opilion est anophtalme[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbasus caecus mesure 1,5 mm. Cet opilion est anophtalme.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phalangodes caecus par Simon en 1911. Elle est placée dans le genre Scotolemon par Roewer en 1923[4] puis dans le genre Arbasus par Roewer en 1935[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phalangodes caecus par Simon en 1911. Elle est placée dans le genre Scotolemon par Roewer en 1923 puis dans le genre Arbasus par Roewer en 1935.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1911 : « Araneae et Opiliones (Troisième série). Biospeologica. XXIII. » Archives de zoologie expérimentale et générale, sér. 5, vol. 9, no 2, p. 177-206 (texte intégral).
 Roewer, 1935 : « Opiliones. Fünfte Serie, zugleich eine Revision aller bisher bekannten Europäischen Laniatores. Biospeologica. LXII. » Archives de Zoologie expérimentale et générale, vol. 78, no 1, p. 1–96.</t>
